--- a/ForTranslation/TextDB_es.xlsx
+++ b/ForTranslation/TextDB_es.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="29220" yWindow="-50" windowWidth="25610" windowHeight="15620" tabRatio="500"/>
+    <workbookView xWindow="29220" yWindow="-50" windowWidth="25610" windowHeight="15620" tabRatio="500" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="298">
   <si>
     <t>EN</t>
   </si>
@@ -45,9 +46,119 @@
     <t>Do Not Translate This Column</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gêét Nôõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Frèêèê Rèêwåârds!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gèèt frèèèè rèèwäärds by wäätchîìng vîìdèèöós öór cöómplèètîìng öóffèèrs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Víìdëèöõ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wâåtch Vïïdëéôô!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Öfféérs</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gëét Óffëérs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RÈWÅRDS!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gêët üúp tòô</t>
+    </r>
+  </si>
+  <si>
     <t>LocalData</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Éâårn!</t>
+    </r>
+  </si>
+  <si>
     <t>90 Characters MAX</t>
   </si>
   <si>
@@ -90,9 +201,367 @@
     <t>NEW: Help the Avengers fight Attuma and his villainous underwater school! Download now!</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Äqüùãàtììc Pãàrk</t>
+    </r>
+  </si>
+  <si>
     <t>Legends</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ãqýýâætîïc cõómbâæt trâæîïnîïng cêëntêër!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Däãngêërõöùús äãqùúäãrîîùúm!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Prèètty dèècèènt náàp spõót!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Õdìïn's Råävëêns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ôdïïn's råàvëéns shóów hïïm ëévëérythïïng thåàt håàppëéns ïïn åàll thëé Tëén Rëéåàlms.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thåát's nòôt åálwåáys åá gòôòôd thìîng...</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Îròón Mæânæâtèêèê</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hëé mâäkëés thïîs lòôòôk gòôòôd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Slêëììpnììr</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Èííght-lêëggêëd-díímêënsííôòn-hôòppííng-Ódíínhôòrsêë!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sáændcáæstlëë</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ã cààstlèë fìît fóór àà sàànd crààb!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sæänd Tíïléès</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wïípëè yõòýýr fëèëèt bëèfõòrëè ëèntëèrïíng Dïírëèctõòr Fýýry's õòffïícëè.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Wáâtêèr Tîìlêès</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hòõnêéstly, thìís ìís âæ sâæfêéty hâæzâærd.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pëëppëër wôöùûld nôöt áãpprôövëë.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Òdîïn Bôôbblëëhëëãád</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thèé Äll-Bôóbblèéhèéààd.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hàånk Pym Bôõbblëèhëèàåd</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thâåt's Bõöbblëéhëéâåd!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pîíræætéè Cóóvéè</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thîís äænîímäætêéd äæwêésõômêénêéss îís thêé ùûltîímäætêé sõôùûrcêé fõôr Gõôld Tõôrpêédõôêés!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yëéllõöw Süýbmãäríínëé</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thïîs àánïîmàátëèd ûündëèrsëèàá vëèhïîclëè gëènëèràátëès möórëè Trïîdëènts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Gôöldéén Sééäâ Séérpéént</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thìïs âànìïmâàtéêd séêâà créêâàtûúréê ìïs théê ûúltìïmâàtéê sôöûúrcéê fôör Trìïdéênts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pym's Àrmôôry</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thäât's Wêèäâpõõnry!</t>
+    </r>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -103,6 +572,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
+      <t>Ódîîn</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
       <t>Jetzt holen!</t>
     </r>
   </si>
@@ -2258,6 +2738,537 @@
         <family val="2"/>
       </rPr>
       <t>Honestamente, isso é um perigo à segurança. A Pepper não aprovaria.</t>
+    </r>
+  </si>
+  <si>
+    <t>kk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Théé LÌMÌTËD-TÌMË Léégéénds Ässéémbléé! éévéént häãs béégùûn!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Båættlêë rîìvåæl stùûdêënts åænd ùûndêërwåætêër îìnvåædêërs töö rêëscùûêë thêë fåæcùûlty!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dôõwnlôõáæd nôõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thèë LÍMÍTÈD-TÍMÈ Lèëgèënds Åssèëmblèë! èëvèënt hæäs bèëgüün!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dóównlóóãæd ãænd bãættlêë ríïvãæl stüûdêënts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÊW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Òdìîn háás jóöìînèëd thèë Äcáádèëmy fóör áá spèëcìîáál èëvèënt!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Plãây nöõw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> gêèt hîïm whîïlêè yöõùü cãân!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÊW ÊVÊNT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rèëcrýüíít yóõýür tèëâãm óõf Ävèëngèërs âãnd bâãttlèë ríívâãl stýüdèënts tóõ rèëscýüèë thèë fâãcýülty!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plàáy Nôõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Théë Ãvéëngéërs, Ã.Ï.M. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Hydráä fáäcéë òóff íìn áä spéëcíìáäl éëvéënt!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Dõõwnlõõäâd nõõw </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> jõõìîn thëè bäâttlëè!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NËW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Héèlp théè Ãvéèngéèrs réèstôõréè ôõrdéèr tôõ Ãvéèngéèrs Ãcæãdéèmy!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ünlòôck Ódîïn àänd mòôrèé!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plæåy nöõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NËW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Hèèlp thèè Ávèèngèèrs fíìght Áttýûmàà àànd híìs víìllààíìnöõýûs ýûndèèrwààtèèr schöõöõl!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dõôwnlõôåäd nõôw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Thèè LÌMÌTÊD-TÌMÊ Lèègèènds Ãssèèmblèè! èèvèènt hæâs bèègüún!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plâày nööw âànd bâàttlëë ríívâàl stùýdëënts!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>LÍMÍTÈD-TÍMÈ:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nïîck Fûüry, Ödïîn, Hæænk Pym, Frïîggææ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> môórêë hæævêë jôóïînêëd Ævêëngêërs Æcæædêëmy!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Plãáy Nòõw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NÊW:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Âctìívãátêê thêê Hêêlìícãárrìíêêr föör thêê fìírst tìímêê töö dêêfêênd Âvêêngêêrs Âcãádêêmy!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Pläãy nõôw!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Rèëcrüùìït Nìïck Füùry âånd ôòthèër nèëw châårâåctèërs!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Æctüûâãl gâãmëê fòöòötâãgëê</t>
     </r>
   </si>
 </sst>
@@ -2265,13 +3276,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;\ _€_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-  </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2292,7 +3297,7 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -2300,7 +3305,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="12"/>
       <color theme="11"/>
       <name val="Calibri"/>
@@ -2319,6 +3324,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2341,10 +3352,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -2366,20 +3383,30 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2387,13 +3414,26 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2402,10 +3442,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2417,22 +3463,99 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Comma" xfId="4"/>
-    <cellStyle name="Comma [0]" xfId="5"/>
-    <cellStyle name="Currency" xfId="2"/>
-    <cellStyle name="Currency [0]" xfId="3"/>
-    <cellStyle name="Followed Hyperlink" xfId="7"/>
-    <cellStyle name="Hyperlink" xfId="6"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1"/>
+  <cellStyles count="18">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="Hyperlink" xfId="20"/>
+    <cellStyle name="Followed Hyperlink" xfId="21"/>
+    <cellStyle name="Hyperlink" xfId="22"/>
+    <cellStyle name="Followed Hyperlink" xfId="23"/>
+    <cellStyle name="Hyperlink" xfId="24"/>
+    <cellStyle name="Followed Hyperlink" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Followed Hyperlink" xfId="27"/>
+    <cellStyle name="Hyperlink" xfId="28"/>
+    <cellStyle name="Followed Hyperlink" xfId="29"/>
+    <cellStyle name="Hyperlink" xfId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="31"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2760,23 +3883,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B50"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.33203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="21.58203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="32.333333333333336" style="2" customWidth="1"/>
+    <col min="3" max="4" width="21.555555555555557" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21.77777777777778" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.77777777777778" style="8" customWidth="1"/>
+    <col min="7" max="7" width="21.77777777777778" style="2" customWidth="1"/>
     <col min="8" max="8" width="22" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.75" style="2"/>
+    <col min="9" max="16384" width="10.777777777777779" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="13">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2802,1134 +3925,1138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="13">
       <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>74</v>
+      <c r="C2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="13">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="50.5">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>76</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="13">
       <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" ht="13">
       <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>77</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="13">
       <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>78</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="13">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="13">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>80</v>
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="13">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="13">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>82</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="75.5">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>83</v>
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="50.5">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>84</v>
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="50.5">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>85</v>
+      <c r="A14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="50.5">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>86</v>
+      <c r="A15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="50.5">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>87</v>
+      <c r="A16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="50.5">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>88</v>
+      <c r="A17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="63">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>89</v>
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="63">
-      <c r="A19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>90</v>
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="50.5">
-      <c r="A20" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>91</v>
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="50.5">
-      <c r="A21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>92</v>
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="25.5">
-      <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>93</v>
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="25.5">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>94</v>
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" ht="13">
       <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>95</v>
+        <v>34</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="63">
       <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>96</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>133</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" ht="13">
       <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="63">
       <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>98</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" ht="13">
       <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="25.5">
       <c r="A29" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" ht="13">
       <c r="A30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="38">
       <c r="A31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" ht="13">
       <c r="A32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>102</v>
+        <v>60</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="25.5">
       <c r="A33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>103</v>
+        <v>60</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" ht="13">
       <c r="A34" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="38">
       <c r="A35" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>105</v>
+        <v>60</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" ht="13">
       <c r="A36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="50.5">
       <c r="A37" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E37" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>107</v>
+      <c r="B37" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="25.5">
       <c r="A38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>108</v>
+        <v>60</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="25.5">
       <c r="A39" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>109</v>
+        <v>60</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="25.5">
       <c r="A40" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.5">
       <c r="A41" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>111</v>
+        <v>60</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" ht="13">
       <c r="A42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>112</v>
+        <v>60</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="38">
       <c r="A43" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>113</v>
+        <v>60</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" ht="13">
       <c r="A44" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>114</v>
+        <v>60</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="38">
       <c r="A45" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>115</v>
+        <v>60</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" ht="13">
       <c r="A46" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>116</v>
+        <v>60</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="38">
       <c r="A47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>117</v>
+        <v>60</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" ht="13">
       <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>118</v>
+        <v>60</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="25.5">
       <c r="A49" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>119</v>
+        <v>60</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" ht="13">
       <c r="A50" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ForTranslation/TextDB_es.xlsx
+++ b/ForTranslation/TextDB_es.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="60">
   <si>
     <t>EN</t>
   </si>
@@ -240,9 +240,6 @@
       </rPr>
       <t xml:space="preserve"> to handbrake</t>
     </r>
-  </si>
-  <si>
-    <t>Check the pacenotes at the top of the screen</t>
   </si>
 </sst>
 </file>
@@ -811,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13"/>
@@ -1311,15 +1308,6 @@
       </c>
       <c r="C53" s="14"/>
     </row>
-    <row r="54" spans="1:10" ht="28">
-      <c r="A54" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="14"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
